--- a/analysis/5.1/td_0.03s.xlsx
+++ b/analysis/5.1/td_0.03s.xlsx
@@ -74,7 +74,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D69"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="true"/>
@@ -102,18 +102,18 @@
         <v>10.1</v>
       </c>
       <c r="B2">
-        <v>1.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C2">
         <v>0.029999999999999999</v>
       </c>
       <c r="D2">
-        <v>321.59146666665964</v>
+        <v>451.82600000000042</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>20.100000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="B3">
         <v>1.1000000000000001</v>
@@ -122,7 +122,7 @@
         <v>0.029999999999999999</v>
       </c>
       <c r="D3">
-        <v>281.84432000000339</v>
+        <v>321.59146666665964</v>
       </c>
     </row>
     <row r="4">
@@ -130,18 +130,18 @@
         <v>20.100000000000001</v>
       </c>
       <c r="B4">
-        <v>2.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C4">
         <v>0.029999999999999999</v>
       </c>
       <c r="D4">
-        <v>284.74893333333137</v>
+        <v>424.08448000000334</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>30.100000000000001</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="B5">
         <v>1.1000000000000001</v>
@@ -150,12 +150,12 @@
         <v>0.029999999999999999</v>
       </c>
       <c r="D5">
-        <v>270.84287999999958</v>
+        <v>281.84432000000339</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>30.100000000000001</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="B6">
         <v>2.1000000000000001</v>
@@ -164,7 +164,7 @@
         <v>0.029999999999999999</v>
       </c>
       <c r="D6">
-        <v>273.86276000000299</v>
+        <v>284.74893333333137</v>
       </c>
     </row>
     <row r="7">
@@ -172,13 +172,13 @@
         <v>30.100000000000001</v>
       </c>
       <c r="B7">
-        <v>3.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C7">
         <v>0.029999999999999999</v>
       </c>
       <c r="D7">
-        <v>265.76264000000197</v>
+        <v>388.14303999999953</v>
       </c>
     </row>
     <row r="8">
@@ -186,55 +186,55 @@
         <v>30.100000000000001</v>
       </c>
       <c r="B8">
-        <v>4.0999999999999996</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C8">
         <v>0.029999999999999999</v>
       </c>
       <c r="D8">
-        <v>278.64248000000202</v>
+        <v>270.84287999999958</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>40.100000000000001</v>
+        <v>30.100000000000001</v>
       </c>
       <c r="B9">
-        <v>0.10000000000000001</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C9">
         <v>0.029999999999999999</v>
       </c>
       <c r="D9">
-        <v>256.47040000000084</v>
+        <v>273.86276000000299</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>40.100000000000001</v>
+        <v>30.100000000000001</v>
       </c>
       <c r="B10">
-        <v>1.1000000000000001</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C10">
         <v>0.029999999999999999</v>
       </c>
       <c r="D10">
-        <v>280.10156000000131</v>
+        <v>265.76264000000197</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>40.100000000000001</v>
+        <v>30.100000000000001</v>
       </c>
       <c r="B11">
-        <v>2.1000000000000001</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C11">
         <v>0.029999999999999999</v>
       </c>
       <c r="D11">
-        <v>276.46144000000027</v>
+        <v>278.64248000000202</v>
       </c>
     </row>
     <row r="12">
@@ -242,13 +242,13 @@
         <v>40.100000000000001</v>
       </c>
       <c r="B12">
-        <v>3.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C12">
         <v>0.029999999999999999</v>
       </c>
       <c r="D12">
-        <v>277.82131999999922</v>
+        <v>256.47040000000084</v>
       </c>
     </row>
     <row r="13">
@@ -256,13 +256,13 @@
         <v>40.100000000000001</v>
       </c>
       <c r="B13">
-        <v>4.0999999999999996</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C13">
         <v>0.029999999999999999</v>
       </c>
       <c r="D13">
-        <v>192.9377777777774</v>
+        <v>280.10156000000131</v>
       </c>
     </row>
     <row r="14">
@@ -270,55 +270,55 @@
         <v>40.100000000000001</v>
       </c>
       <c r="B14">
-        <v>5.0999999999999996</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C14">
         <v>0.029999999999999999</v>
       </c>
       <c r="D14">
-        <v>278.74104000000267</v>
+        <v>276.46144000000027</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>50.100000000000001</v>
+        <v>40.100000000000001</v>
       </c>
       <c r="B15">
-        <v>0.10000000000000001</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C15">
         <v>0.029999999999999999</v>
       </c>
       <c r="D15">
-        <v>244.80310000000219</v>
+        <v>277.82131999999922</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>50.100000000000001</v>
+        <v>40.100000000000001</v>
       </c>
       <c r="B16">
-        <v>1.1000000000000001</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C16">
         <v>0.029999999999999999</v>
       </c>
       <c r="D16">
-        <v>216.58253333333118</v>
+        <v>192.9377777777774</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>50.100000000000001</v>
+        <v>40.100000000000001</v>
       </c>
       <c r="B17">
-        <v>2.1000000000000001</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C17">
         <v>0.029999999999999999</v>
       </c>
       <c r="D17">
-        <v>276.70019999999965</v>
+        <v>278.74104000000267</v>
       </c>
     </row>
     <row r="18">
@@ -326,13 +326,13 @@
         <v>50.100000000000001</v>
       </c>
       <c r="B18">
-        <v>3.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C18">
         <v>0.029999999999999999</v>
       </c>
       <c r="D18">
-        <v>248.22008000000307</v>
+        <v>244.80310000000219</v>
       </c>
     </row>
     <row r="19">
@@ -340,13 +340,13 @@
         <v>50.100000000000001</v>
       </c>
       <c r="B19">
-        <v>4.0999999999999996</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C19">
         <v>0.029999999999999999</v>
       </c>
       <c r="D19">
-        <v>277.43996000000203</v>
+        <v>216.58253333333118</v>
       </c>
     </row>
     <row r="20">
@@ -354,13 +354,13 @@
         <v>50.100000000000001</v>
       </c>
       <c r="B20">
-        <v>5.0999999999999996</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C20">
         <v>0.029999999999999999</v>
       </c>
       <c r="D20">
-        <v>276.43984000000097</v>
+        <v>276.70019999999965</v>
       </c>
     </row>
     <row r="21">
@@ -368,55 +368,55 @@
         <v>50.100000000000001</v>
       </c>
       <c r="B21">
-        <v>6.0999999999999996</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C21">
         <v>0.029999999999999999</v>
       </c>
       <c r="D21">
-        <v>277.39971999999989</v>
+        <v>248.22008000000307</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>60.100000000000001</v>
+        <v>50.100000000000001</v>
       </c>
       <c r="B22">
-        <v>0.10000000000000001</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C22">
         <v>0.029999999999999999</v>
       </c>
       <c r="D22">
-        <v>231.57406666666407</v>
+        <v>277.43996000000203</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>60.100000000000001</v>
+        <v>50.100000000000001</v>
       </c>
       <c r="B23">
-        <v>1.1000000000000001</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C23">
         <v>0.029999999999999999</v>
       </c>
       <c r="D23">
-        <v>277.35916000000236</v>
+        <v>276.43984000000097</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>60.100000000000001</v>
+        <v>50.100000000000001</v>
       </c>
       <c r="B24">
-        <v>2.1000000000000001</v>
+        <v>6.0999999999999996</v>
       </c>
       <c r="C24">
         <v>0.029999999999999999</v>
       </c>
       <c r="D24">
-        <v>212.44880000000117</v>
+        <v>277.39971999999989</v>
       </c>
     </row>
     <row r="25">
@@ -424,13 +424,13 @@
         <v>60.100000000000001</v>
       </c>
       <c r="B25">
-        <v>3.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C25">
         <v>0.029999999999999999</v>
       </c>
       <c r="D25">
-        <v>275.05892000000028</v>
+        <v>231.57406666666407</v>
       </c>
     </row>
     <row r="26">
@@ -438,13 +438,13 @@
         <v>60.100000000000001</v>
       </c>
       <c r="B26">
-        <v>4.0999999999999996</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C26">
         <v>0.029999999999999999</v>
       </c>
       <c r="D26">
-        <v>221.56666666666592</v>
+        <v>277.35916000000236</v>
       </c>
     </row>
     <row r="27">
@@ -452,13 +452,13 @@
         <v>60.100000000000001</v>
       </c>
       <c r="B27">
-        <v>5.0999999999999996</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C27">
         <v>0.029999999999999999</v>
       </c>
       <c r="D27">
-        <v>240.52379999999903</v>
+        <v>212.44880000000117</v>
       </c>
     </row>
     <row r="28">
@@ -466,55 +466,55 @@
         <v>60.100000000000001</v>
       </c>
       <c r="B28">
-        <v>6.0999999999999996</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C28">
         <v>0.029999999999999999</v>
       </c>
       <c r="D28">
-        <v>245.4186000000004</v>
+        <v>275.05892000000028</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>70.099999999999994</v>
+        <v>60.100000000000001</v>
       </c>
       <c r="B29">
-        <v>0.10000000000000001</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C29">
         <v>0.029999999999999999</v>
       </c>
       <c r="D29">
-        <v>227.48280000000511</v>
+        <v>221.56666666666592</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>70.099999999999994</v>
+        <v>60.100000000000001</v>
       </c>
       <c r="B30">
-        <v>1.1000000000000001</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C30">
         <v>0.029999999999999999</v>
       </c>
       <c r="D30">
-        <v>195.51808000000176</v>
+        <v>240.52379999999903</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>70.099999999999994</v>
+        <v>60.100000000000001</v>
       </c>
       <c r="B31">
-        <v>2.1000000000000001</v>
+        <v>6.0999999999999996</v>
       </c>
       <c r="C31">
         <v>0.029999999999999999</v>
       </c>
       <c r="D31">
-        <v>195.29796000000067</v>
+        <v>245.4186000000004</v>
       </c>
     </row>
     <row r="32">
@@ -522,13 +522,13 @@
         <v>70.099999999999994</v>
       </c>
       <c r="B32">
-        <v>3.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C32">
         <v>0.029999999999999999</v>
       </c>
       <c r="D32">
-        <v>200.5898400000012</v>
+        <v>227.48280000000511</v>
       </c>
     </row>
     <row r="33">
@@ -536,13 +536,13 @@
         <v>70.099999999999994</v>
       </c>
       <c r="B33">
-        <v>4.0999999999999996</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C33">
         <v>0.029999999999999999</v>
       </c>
       <c r="D33">
-        <v>199.4112000000006</v>
+        <v>195.51808000000176</v>
       </c>
     </row>
     <row r="34">
@@ -550,13 +550,13 @@
         <v>70.099999999999994</v>
       </c>
       <c r="B34">
-        <v>5.0999999999999996</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C34">
         <v>0.029999999999999999</v>
       </c>
       <c r="D34">
-        <v>201.35610000000051</v>
+        <v>195.29796000000067</v>
       </c>
     </row>
     <row r="35">
@@ -564,55 +564,55 @@
         <v>70.099999999999994</v>
       </c>
       <c r="B35">
-        <v>6.0999999999999996</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C35">
         <v>0.029999999999999999</v>
       </c>
       <c r="D35">
-        <v>200.42126666666707</v>
+        <v>200.5898400000012</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>80.099999999999994</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="B36">
-        <v>0.10000000000000001</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C36">
         <v>0.029999999999999999</v>
       </c>
       <c r="D36">
-        <v>200.49079999999918</v>
+        <v>199.4112000000006</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>80.099999999999994</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="B37">
-        <v>1.1000000000000001</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C37">
         <v>0.029999999999999999</v>
       </c>
       <c r="D37">
-        <v>194.54453999999942</v>
+        <v>201.35610000000051</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>80.099999999999994</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="B38">
-        <v>2.1000000000000001</v>
+        <v>6.0999999999999996</v>
       </c>
       <c r="C38">
         <v>0.029999999999999999</v>
       </c>
       <c r="D38">
-        <v>245.11696000000222</v>
+        <v>200.42126666666707</v>
       </c>
     </row>
     <row r="39">
@@ -620,13 +620,13 @@
         <v>80.099999999999994</v>
       </c>
       <c r="B39">
-        <v>3.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C39">
         <v>0.029999999999999999</v>
       </c>
       <c r="D39">
-        <v>194.68444000000002</v>
+        <v>200.49079999999918</v>
       </c>
     </row>
     <row r="40">
@@ -634,13 +634,13 @@
         <v>80.099999999999994</v>
       </c>
       <c r="B40">
-        <v>4.0999999999999996</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C40">
         <v>0.029999999999999999</v>
       </c>
       <c r="D40">
-        <v>209.61549999999855</v>
+        <v>194.54453999999942</v>
       </c>
     </row>
     <row r="41">
@@ -648,13 +648,13 @@
         <v>80.099999999999994</v>
       </c>
       <c r="B41">
-        <v>5.0999999999999996</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C41">
         <v>0.029999999999999999</v>
       </c>
       <c r="D41">
-        <v>209.56285000000091</v>
+        <v>245.11696000000222</v>
       </c>
     </row>
     <row r="42">
@@ -662,55 +662,55 @@
         <v>80.099999999999994</v>
       </c>
       <c r="B42">
-        <v>6.0999999999999996</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C42">
         <v>0.029999999999999999</v>
       </c>
       <c r="D42">
-        <v>199.75254545454621</v>
+        <v>194.68444000000002</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>90.099999999999994</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="B43">
-        <v>0.10000000000000001</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C43">
         <v>0.029999999999999999</v>
       </c>
       <c r="D43">
-        <v>199.44906666666458</v>
+        <v>209.61549999999855</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>90.099999999999994</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="B44">
-        <v>1.1000000000000001</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C44">
         <v>0.029999999999999999</v>
       </c>
       <c r="D44">
-        <v>194.1361600000026</v>
+        <v>209.56285000000091</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>90.099999999999994</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="B45">
-        <v>2.1000000000000001</v>
+        <v>6.0999999999999996</v>
       </c>
       <c r="C45">
         <v>0.029999999999999999</v>
       </c>
       <c r="D45">
-        <v>194.3240400000002</v>
+        <v>199.75254545454621</v>
       </c>
     </row>
     <row r="46">
@@ -718,13 +718,13 @@
         <v>90.099999999999994</v>
       </c>
       <c r="B46">
-        <v>3.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C46">
         <v>0.029999999999999999</v>
       </c>
       <c r="D46">
-        <v>194.33400000000111</v>
+        <v>199.44906666666458</v>
       </c>
     </row>
     <row r="47">
@@ -732,13 +732,13 @@
         <v>90.099999999999994</v>
       </c>
       <c r="B47">
-        <v>4.0999999999999996</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C47">
         <v>0.029999999999999999</v>
       </c>
       <c r="D47">
-        <v>194.27588000000159</v>
+        <v>194.1361600000026</v>
       </c>
     </row>
     <row r="48">
@@ -746,13 +746,13 @@
         <v>90.099999999999994</v>
       </c>
       <c r="B48">
-        <v>5.0999999999999996</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C48">
         <v>0.029999999999999999</v>
       </c>
       <c r="D48">
-        <v>209.62925000000013</v>
+        <v>194.3240400000002</v>
       </c>
     </row>
     <row r="49">
@@ -760,55 +760,55 @@
         <v>90.099999999999994</v>
       </c>
       <c r="B49">
-        <v>6.0999999999999996</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C49">
         <v>0.029999999999999999</v>
       </c>
       <c r="D49">
-        <v>217.55486666666692</v>
+        <v>194.33400000000111</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>100.09999999999999</v>
+        <v>90.099999999999994</v>
       </c>
       <c r="B50">
-        <v>0.10000000000000001</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C50">
         <v>0.029999999999999999</v>
       </c>
       <c r="D50">
-        <v>198.54031111111215</v>
+        <v>194.27588000000159</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>100.09999999999999</v>
+        <v>90.099999999999994</v>
       </c>
       <c r="B51">
-        <v>1.1000000000000001</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C51">
         <v>0.029999999999999999</v>
       </c>
       <c r="D51">
-        <v>198.53137777777809</v>
+        <v>209.62925000000013</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>100.09999999999999</v>
+        <v>90.099999999999994</v>
       </c>
       <c r="B52">
-        <v>2.1000000000000001</v>
+        <v>6.0999999999999996</v>
       </c>
       <c r="C52">
         <v>0.029999999999999999</v>
       </c>
       <c r="D52">
-        <v>198.57140000000146</v>
+        <v>217.55486666666692</v>
       </c>
     </row>
     <row r="53">
@@ -816,13 +816,13 @@
         <v>100.09999999999999</v>
       </c>
       <c r="B53">
-        <v>3.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C53">
         <v>0.029999999999999999</v>
       </c>
       <c r="D53">
-        <v>198.4226399999975</v>
+        <v>198.54031111111215</v>
       </c>
     </row>
     <row r="54">
@@ -830,13 +830,13 @@
         <v>100.09999999999999</v>
       </c>
       <c r="B54">
-        <v>4.0999999999999996</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C54">
         <v>0.029999999999999999</v>
       </c>
       <c r="D54">
-        <v>198.45359999999934</v>
+        <v>198.53137777777809</v>
       </c>
     </row>
     <row r="55">
@@ -844,55 +844,55 @@
         <v>100.09999999999999</v>
       </c>
       <c r="B55">
-        <v>5.0999999999999996</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C55">
         <v>0.029999999999999999</v>
       </c>
       <c r="D55">
-        <v>208.53509999999551</v>
+        <v>198.57140000000146</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>110.09999999999999</v>
+        <v>100.09999999999999</v>
       </c>
       <c r="B56">
-        <v>0.10000000000000001</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C56">
         <v>0.029999999999999999</v>
       </c>
       <c r="D56">
-        <v>197.49051428571499</v>
+        <v>198.4226399999975</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>110.09999999999999</v>
+        <v>100.09999999999999</v>
       </c>
       <c r="B57">
-        <v>1.1000000000000001</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C57">
         <v>0.029999999999999999</v>
       </c>
       <c r="D57">
-        <v>197.49045714285629</v>
+        <v>198.45359999999934</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>110.09999999999999</v>
+        <v>100.09999999999999</v>
       </c>
       <c r="B58">
-        <v>2.1000000000000001</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C58">
         <v>0.029999999999999999</v>
       </c>
       <c r="D58">
-        <v>192.45483999999985</v>
+        <v>208.53509999999551</v>
       </c>
     </row>
     <row r="59">
@@ -900,13 +900,13 @@
         <v>110.09999999999999</v>
       </c>
       <c r="B59">
-        <v>3.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C59">
         <v>0.029999999999999999</v>
       </c>
       <c r="D59">
-        <v>192.57480000000098</v>
+        <v>197.49051428571499</v>
       </c>
     </row>
     <row r="60">
@@ -914,13 +914,13 @@
         <v>110.09999999999999</v>
       </c>
       <c r="B60">
-        <v>4.0999999999999996</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C60">
         <v>0.029999999999999999</v>
       </c>
       <c r="D60">
-        <v>192.5747600000021</v>
+        <v>197.49045714285629</v>
       </c>
     </row>
     <row r="61">
@@ -928,55 +928,55 @@
         <v>110.09999999999999</v>
       </c>
       <c r="B61">
-        <v>5.0999999999999996</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C61">
         <v>0.029999999999999999</v>
       </c>
       <c r="D61">
-        <v>192.51471999999879</v>
+        <v>192.45483999999985</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>120.09999999999999</v>
+        <v>110.09999999999999</v>
       </c>
       <c r="B62">
-        <v>0.10000000000000001</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C62">
         <v>0.029999999999999999</v>
       </c>
       <c r="D62">
-        <v>188.37243636363615</v>
+        <v>192.57480000000098</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>120.09999999999999</v>
+        <v>110.09999999999999</v>
       </c>
       <c r="B63">
-        <v>1.1000000000000001</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C63">
         <v>0.029999999999999999</v>
       </c>
       <c r="D63">
-        <v>187.75132173913033</v>
+        <v>192.5747600000021</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>120.09999999999999</v>
+        <v>110.09999999999999</v>
       </c>
       <c r="B64">
-        <v>2.1000000000000001</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C64">
         <v>0.029999999999999999</v>
       </c>
       <c r="D64">
-        <v>191.05439999999894</v>
+        <v>192.51471999999879</v>
       </c>
     </row>
     <row r="65">
@@ -984,26 +984,68 @@
         <v>120.09999999999999</v>
       </c>
       <c r="B65">
-        <v>3.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C65">
         <v>0.029999999999999999</v>
       </c>
       <c r="D65">
-        <v>192.19436000000007</v>
+        <v>188.37243636363615</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
+        <v>120.09999999999999</v>
+      </c>
+      <c r="B66">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C66">
+        <v>0.029999999999999999</v>
+      </c>
+      <c r="D66">
+        <v>187.75132173913033</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>120.09999999999999</v>
+      </c>
+      <c r="B67">
+        <v>2.1000000000000001</v>
+      </c>
+      <c r="C67">
+        <v>0.029999999999999999</v>
+      </c>
+      <c r="D67">
+        <v>191.05439999999894</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>120.09999999999999</v>
+      </c>
+      <c r="B68">
+        <v>3.1000000000000001</v>
+      </c>
+      <c r="C68">
+        <v>0.029999999999999999</v>
+      </c>
+      <c r="D68">
+        <v>192.19436000000007</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
         <v>130.09999999999999</v>
       </c>
-      <c r="B66">
-        <v>0.10000000000000001</v>
-      </c>
-      <c r="C66">
-        <v>0.029999999999999999</v>
-      </c>
-      <c r="D66">
+      <c r="B69">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="C69">
+        <v>0.029999999999999999</v>
+      </c>
+      <c r="D69">
         <v>187.68203076923075</v>
       </c>
     </row>
